--- a/static/file/corredores.xlsx
+++ b/static/file/corredores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\7mo Semestre\Modeling and Simulation\FirstPartial\Miproyecto\repositoriodemodelamiento\Project\src\static\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\python_proyet\deploy\static\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E015E174-0263-41B6-9EB8-69512A0C408D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C65DDF5-8B9F-4293-83D9-05CC637D69A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="912" yWindow="1668" windowWidth="14160" windowHeight="10260" xr2:uid="{D4264560-1C34-41B7-8E9A-FC94EF5FC0FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D4264560-1C34-41B7-8E9A-FC94EF5FC0FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -428,12 +428,13 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3475.3591999999999</v>
       </c>
@@ -473,7 +474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13594.13853</v>
       </c>
@@ -493,7 +494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12012.12256</v>
       </c>
@@ -513,7 +514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10236.10457</v>
       </c>
